--- a/biology/Médecine/La_Chambre_des_officiers/La_Chambre_des_officiers.xlsx
+++ b/biology/Médecine/La_Chambre_des_officiers/La_Chambre_des_officiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Chambre des officiers est un film français réalisé par François Dupeyron, sorti en 2001.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adaptation du roman du même nom de l'auteur Marc Dugain, La Chambre des officiers s'intéresse ici à un aspect particulier de la Première Guerre mondiale : les gueules cassées, ces soldats défigurés par le conflit. L'un d'eux, Adrien, va nouer à l’hôpital d'intenses amitiés avec ses compagnons, mutilés comme lui. Une fois retourné à la vie civile à la fin du conflit, il devra se faire accepter des autres et tout laisse à penser qu'il y parviendra.   
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Chambre des officiers
 Réalisation : François Dupeyron
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Éric Caravaca : Adrien Fournier
@@ -659,7 +677,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le film a été réalisé avec les conseils techniques de chirurgiens stomatologues du service de chirurgie cervico-faciale de l'Hôpital d'instruction des armées du Val-de-Grâce à Paris.
 Il s'agit de la dernière apparition au cinéma de Guy Tréjan, mort quelque temps après le tournage.
@@ -693,20 +713,93 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompenses
-César 2002 :
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>César 2002 :
 meilleure photographie pour Tetsuo Nagata
-meilleur second rôle masculin pour André Dussollier
-Nominations
-César 2002 :
+meilleur second rôle masculin pour André Dussollier</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La_Chambre_des_officiers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Chambre_des_officiers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>César 2002 :
 meilleur film
 meilleur réalisateur
 meilleur scénario
 meilleurs costumes pour Catherine Bouchard
 meilleur acteur pour Éric Caravaca
-meilleur espoir masculin pour Grégori Derangère et Jean-Michel Portal
-Sélection
-Festival de Cannes 2001 : sélection officielle, en compétition</t>
+meilleur espoir masculin pour Grégori Derangère et Jean-Michel Portal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Chambre_des_officiers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Chambre_des_officiers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2001 : sélection officielle, en compétition</t>
         </is>
       </c>
     </row>
